--- a/output/invoice_page_3.jpg.txt.xlsx
+++ b/output/invoice_page_3.jpg.txt.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Invoice Details" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Line Items" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Validation Errors" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +471,21 @@
           <t>Seal &amp; Signature Present</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Confidence Score (Invoice No)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Confidence Score (Invoice Date)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Confidence Score (Supplier GST)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -488,6 +504,15 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="b">
         <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +560,16 @@
           <t>total_amount</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Confidence Score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Passed</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -560,6 +595,59 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>7814</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Warnings</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Calculation mismatch in item: Boulevard Bank Account 8900</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Subtotal calculation mismatch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Final total calculation mismatch.</t>
         </is>
       </c>
     </row>

--- a/output/invoice_page_3.jpg.txt.xlsx
+++ b/output/invoice_page_3.jpg.txt.xlsx
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="I2" t="n">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="J2" t="n">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>

--- a/output/invoice_page_3.jpg.txt.xlsx
+++ b/output/invoice_page_3.jpg.txt.xlsx
@@ -489,30 +489,22 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>laowe Date Nov 9. 2016 London W11 1LA</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>VAT Numbet FR90103402210 PO number 581660</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="I2" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -526,85 +518,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>serial_number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>quantity</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>unit_price</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>total_amount</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Confidence Score</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Validation Passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Boulevard Bank Account 8900</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0175</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>7814</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -615,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,19 +554,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Calculation mismatch in item: Boulevard Bank Account 8900</t>
+          <t>Subtotal calculation mismatch.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
-        <is>
-          <t>Subtotal calculation mismatch.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
         <is>
           <t>Final total calculation mismatch.</t>
         </is>

--- a/output/invoice_page_3.jpg.txt.xlsx
+++ b/output/invoice_page_3.jpg.txt.xlsx
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="J2" t="n">
-        <v>0.86</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output/invoice_page_3.jpg.txt.xlsx
+++ b/output/invoice_page_3.jpg.txt.xlsx
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="I2" t="n">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/output/invoice_page_3.jpg.txt.xlsx
+++ b/output/invoice_page_3.jpg.txt.xlsx
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="I2" t="n">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>
